--- a/doc/PO2019-YTD-PIGS-OBS.xlsx
+++ b/doc/PO2019-YTD-PIGS-OBS.xlsx
@@ -15033,7 +15033,7 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
